--- a/benchmarks/benchmark_hpc_1.xlsx
+++ b/benchmarks/benchmark_hpc_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18D6861-7DBD-40B8-A466-C600B7DB989F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5118AFD-5B7A-4C4D-AE56-4AF63FCE10F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2850" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
+    <workbookView xWindow="3120" yWindow="3195" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,17 +537,20 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>284.59758920000002</v>
+      </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="0">MIN(B2:F2)</f>
-        <v>0</v>
+        <v>284.59758920000002</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="1">MAX(B2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="e">
+        <v>284.59758920000002</v>
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I9" si="2">AVERAGE(B2:F2)</f>
-        <v>#DIV/0!</v>
+        <v>284.59758920000002</v>
       </c>
       <c r="J2" t="e">
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
@@ -574,17 +577,20 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>261.49212440000002</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>261.49212440000002</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
+        <v>261.49212440000002</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>261.49212440000002</v>
       </c>
       <c r="J3" t="e">
         <f t="shared" si="3"/>

--- a/benchmarks/benchmark_hpc_1.xlsx
+++ b/benchmarks/benchmark_hpc_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5118AFD-5B7A-4C4D-AE56-4AF63FCE10F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186468B9-FEBB-45A2-A143-88152FCB3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3195" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
+    <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +556,9 @@
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f>RANK(I2,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -596,9 +596,9 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -617,25 +617,28 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>373.17175830000002</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>373.17175830000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="e">
+        <v>373.17175830000002</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>373.17175830000002</v>
       </c>
       <c r="J4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" t="e">
+      <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -654,25 +657,28 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>357.10857909999999</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>357.10857909999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
+        <v>357.10857909999999</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>357.10857909999999</v>
       </c>
       <c r="J5" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -691,25 +697,28 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>194.9130188</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>194.9130188</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>194.9130188</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>194.9130188</v>
       </c>
       <c r="J6" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -728,25 +737,28 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>171.41633179999999</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>171.41633179999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <v>171.41633179999999</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>171.41633179999999</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -765,25 +777,28 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>183.13380939999999</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>183.13380939999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
+        <v>183.13380939999999</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>183.13380939999999</v>
       </c>
       <c r="J8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" t="e">
+      <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -802,25 +817,28 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>188.20553090000001</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>188.20553090000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>188.20553090000001</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>188.20553090000001</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" t="e">
+      <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>

--- a/benchmarks/benchmark_hpc_1.xlsx
+++ b/benchmarks/benchmark_hpc_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186468B9-FEBB-45A2-A143-88152FCB3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763AE70E-5CAE-47C5-AF16-D277F9199B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
@@ -166,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,21 +540,33 @@
       <c r="B2">
         <v>284.59758920000002</v>
       </c>
+      <c r="C2">
+        <v>282.30848520000001</v>
+      </c>
+      <c r="D2">
+        <v>281.56578990000003</v>
+      </c>
+      <c r="E2">
+        <v>281.17920229999999</v>
+      </c>
+      <c r="F2">
+        <v>285.34828549999997</v>
+      </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="0">MIN(B2:F2)</f>
-        <v>284.59758920000002</v>
+        <v>281.17920229999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="1">MAX(B2:F2)</f>
-        <v>284.59758920000002</v>
+        <v>285.34828549999997</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I9" si="2">AVERAGE(B2:F2)</f>
-        <v>284.59758920000002</v>
-      </c>
-      <c r="J2" t="e">
+        <v>282.99987042000004</v>
+      </c>
+      <c r="J2">
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
-        <v>#DIV/0!</v>
+        <v>1.8652876153155473</v>
       </c>
       <c r="K2">
         <f>RANK(I2,I2:I9,1)</f>

--- a/benchmarks/benchmark_hpc_1.xlsx
+++ b/benchmarks/benchmark_hpc_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763AE70E-5CAE-47C5-AF16-D277F9199B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03D743-AC09-4E24-A6E2-CFB2CC07DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,21 +592,33 @@
       <c r="B3">
         <v>261.49212440000002</v>
       </c>
+      <c r="C3">
+        <v>262.78110020000003</v>
+      </c>
+      <c r="D3">
+        <v>262.76965080000002</v>
+      </c>
+      <c r="E3">
+        <v>265.51338709999999</v>
+      </c>
+      <c r="F3">
+        <v>256.3278823</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>261.49212440000002</v>
+        <v>256.3278823</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>261.49212440000002</v>
+        <v>265.51338709999999</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>261.49212440000002</v>
-      </c>
-      <c r="J3" t="e">
+        <v>261.77682895999999</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.3811314324158688</v>
       </c>
       <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
@@ -632,21 +644,33 @@
       <c r="B4">
         <v>373.17175830000002</v>
       </c>
+      <c r="C4">
+        <v>379.47339970000002</v>
+      </c>
+      <c r="D4">
+        <v>377.16011479999997</v>
+      </c>
+      <c r="E4">
+        <v>379.84729010000001</v>
+      </c>
+      <c r="F4">
+        <v>382.45701380000003</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>373.17175830000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>373.17175830000002</v>
+        <v>382.45701380000003</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>373.17175830000002</v>
-      </c>
-      <c r="J4" t="e">
+        <v>378.42191534000006</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.4848106725857435</v>
       </c>
       <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
@@ -672,21 +696,33 @@
       <c r="B5">
         <v>357.10857909999999</v>
       </c>
+      <c r="C5">
+        <v>375.11497680000002</v>
+      </c>
+      <c r="D5">
+        <v>357.66265060000001</v>
+      </c>
+      <c r="E5">
+        <v>369.64864269999998</v>
+      </c>
+      <c r="F5">
+        <v>356.20597659999999</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>357.10857909999999</v>
+        <v>356.20597659999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>357.10857909999999</v>
+        <v>375.11497680000002</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>357.10857909999999</v>
-      </c>
-      <c r="J5" t="e">
+        <v>363.14816516000002</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.663461214231841</v>
       </c>
       <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
@@ -712,21 +748,33 @@
       <c r="B6">
         <v>194.9130188</v>
       </c>
+      <c r="C6">
+        <v>197.19461749999999</v>
+      </c>
+      <c r="D6">
+        <v>198.6493806</v>
+      </c>
+      <c r="E6">
+        <v>194.84731970000001</v>
+      </c>
+      <c r="F6">
+        <v>197.22820329999999</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>194.9130188</v>
+        <v>194.84731970000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>194.9130188</v>
+        <v>198.6493806</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>194.9130188</v>
-      </c>
-      <c r="J6" t="e">
+        <v>196.56650797999998</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.6477526685789761</v>
       </c>
       <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
@@ -752,9 +800,21 @@
       <c r="B7">
         <v>171.41633179999999</v>
       </c>
+      <c r="C7">
+        <v>170.3290508</v>
+      </c>
+      <c r="D7">
+        <v>170.54211710000001</v>
+      </c>
+      <c r="E7">
+        <v>169.4332197</v>
+      </c>
+      <c r="F7">
+        <v>169.1459419</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>171.41633179999999</v>
+        <v>169.1459419</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -762,11 +822,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>171.41633179999999</v>
-      </c>
-      <c r="J7" t="e">
+        <v>170.17333226</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.90947731302716728</v>
       </c>
       <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
@@ -792,21 +852,33 @@
       <c r="B8">
         <v>183.13380939999999</v>
       </c>
+      <c r="C8">
+        <v>190.5372773</v>
+      </c>
+      <c r="D8">
+        <v>194.3550123</v>
+      </c>
+      <c r="E8">
+        <v>189.9260309</v>
+      </c>
+      <c r="F8">
+        <v>186.38416520000001</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>183.13380939999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>183.13380939999999</v>
+        <v>194.3550123</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>183.13380939999999</v>
-      </c>
-      <c r="J8" t="e">
+        <v>188.86725901999998</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.2738622601683138</v>
       </c>
       <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
@@ -832,21 +904,33 @@
       <c r="B9">
         <v>188.20553090000001</v>
       </c>
+      <c r="C9">
+        <v>188.61097939999999</v>
+      </c>
+      <c r="D9">
+        <v>194.6062896</v>
+      </c>
+      <c r="E9">
+        <v>192.3972478</v>
+      </c>
+      <c r="F9">
+        <v>195.0663294</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>188.20553090000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>188.20553090000001</v>
+        <v>195.0663294</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>188.20553090000001</v>
-      </c>
-      <c r="J9" t="e">
+        <v>191.77727542</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.2399210047613658</v>
       </c>
       <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
